--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +537,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -568,7 +568,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -599,7 +599,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -630,7 +630,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -661,7 +661,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,7 +712,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2486,7 +2486,7 @@
       <c r="K39" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3033,10 +3033,14 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3096,12 +3100,12 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3168,7 +3172,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3223,12 +3227,13 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3274,13 +3279,12 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3332,7 +3336,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3387,7 +3391,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3438,7 +3442,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3456,7 +3460,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3486,21 +3490,9 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3585,7 +3577,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3626,7 +3622,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3669,7 +3665,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3708,7 +3704,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3759,7 +3755,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3806,7 +3802,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3858,7 +3854,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3905,7 +3901,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3952,7 +3948,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3971,7 +3967,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3999,7 +3995,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4018,7 +4014,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4046,7 +4042,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4065,10 +4061,15 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
@@ -4087,11 +4088,7 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4101,22 +4098,9 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
@@ -4146,9 +4130,21 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4191,17 +4187,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4213,7 +4209,11 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -4232,21 +4232,9 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4258,7 +4246,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4287,11 +4275,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,8 +1119,9 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>Driver,
+White Camry,
+Trainer</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1185,7 +1186,12 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1233,13 +1239,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>4th Scan, work w/ Anisha</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1306,12 +1311,13 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1328,7 +1334,8 @@
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Trainer</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1382,12 +1389,13 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1449,7 +1457,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1521,7 +1529,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1588,7 +1596,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1604,10 +1612,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1643,12 +1655,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1659,7 +1671,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1675,7 +1687,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1726,13 +1738,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1743,7 +1754,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1759,7 +1770,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1811,18 +1822,31 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1831,7 +1855,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1863,16 +1887,36 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
@@ -1907,16 +1951,24 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2nd Financial, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1951,27 +2003,19 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -2008,7 +2052,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2016,17 +2060,13 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2063,7 +2103,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL      </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2071,7 +2111,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2079,7 +2119,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2118,7 +2158,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
+          <t xml:space="preserve">DC5-FINANCIAL      </t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2126,7 +2166,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2518 W WASHINGTON STREET</t>
+          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2134,7 +2174,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2161,7 +2201,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2169,7 +2209,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+          <t>2518 W WASHINGTON STREET</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2177,7 +2217,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2204,19 +2244,23 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2245,29 +2289,21 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store, Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2295,42 +2331,30 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Sante Fe, Equip</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2360,36 +2384,41 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2419,37 +2448,37 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2475,37 +2504,37 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2543,35 +2572,39 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>25555 75TH ST</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2603,43 +2636,44 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4th Financial, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2670,54 +2704,31 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2729,7 +2740,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2744,35 +2759,49 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2807,12 +2836,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2823,19 +2852,32 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2847,7 +2889,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2866,12 +2912,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2882,22 +2928,22 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>3rd Scan, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -2929,12 +2975,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2945,22 +2991,18 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -2970,10 +3012,14 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>4th Scan, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2992,12 +3038,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3008,12 +3054,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3021,7 +3067,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3033,14 +3079,10 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3059,12 +3101,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3075,12 +3117,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3088,7 +3130,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1433, MT PLEASANT</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3100,12 +3142,12 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3126,12 +3168,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3142,25 +3184,20 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>13250 WASHINGTON AVE, SUITE 1A0043</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3172,12 +3209,13 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd week,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3192,30 +3230,38 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hWixpCQuYhJ3PMrB9</t>
+          <t>AURORA OUTPATIENT RX #1433, MT PLEASANT</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3227,13 +3273,12 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3260,16 +3305,45 @@
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>13250 WASHINGTON AVE, SUITE 1A0043</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
@@ -3279,7 +3353,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3300,34 +3374,32 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/hWixpCQuYhJ3PMrB9</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3336,12 +3408,13 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3357,31 +3430,15 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
@@ -3391,7 +3448,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3418,22 +3475,32 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3442,7 +3509,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3473,7 +3540,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3481,18 +3548,38 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3512,7 +3599,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3520,22 +3607,30 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3555,7 +3650,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3563,25 +3658,17 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3602,7 +3689,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3610,21 +3697,21 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3645,7 +3732,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3653,19 +3740,23 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3684,7 +3775,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3692,7 +3783,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3704,7 +3795,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3735,7 +3826,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3743,7 +3834,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3755,7 +3846,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3782,7 +3873,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3790,7 +3881,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3802,7 +3893,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3827,14 +3918,15 @@
       <c r="G63" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Trainer</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3842,7 +3934,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3854,7 +3946,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3881,7 +3973,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3889,7 +3981,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3901,7 +3993,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3928,7 +4020,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3936,7 +4028,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3948,7 +4040,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3967,15 +4059,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3rd Financial, work w/ 
+Jerry D</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3983,7 +4080,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3995,7 +4092,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4014,7 +4111,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4022,7 +4119,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4030,7 +4127,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4042,7 +4139,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4061,26 +4158,25 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4088,7 +4184,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4098,53 +4198,50 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4160,46 +4257,22 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Optima available</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4209,32 +4282,52 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4246,26 +4339,54 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Optima available</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4275,24 +4396,20 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4317,16 +4434,8 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4354,15 +4463,19 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4378,6 +4491,76 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,20 +611,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 6-8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -602,20 +666,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 11</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -778,7 +778,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM MEET RYAN RD PARK N RIDE (100 &amp; 94)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -3155,7 +3155,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>5:30 AM MEET RYAN RD PARK N RIDE (100 &amp; 94)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Trainer, Until 11:45</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -4425,11 +4425,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -4484,11 +4480,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3461,9 +3461,21 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3561,11 +3573,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3628,7 +3636,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3687,7 +3695,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3738,7 +3746,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3777,7 +3785,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3820,7 +3828,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3863,7 +3871,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3914,7 +3922,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3961,7 +3969,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4014,7 +4022,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4061,7 +4069,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4108,7 +4116,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4160,7 +4168,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4207,7 +4215,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4254,7 +4262,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4306,7 +4314,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4345,7 +4353,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4376,7 +4384,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4431,7 +4439,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4486,7 +4494,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4515,7 +4523,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4541,21 +4553,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4582,15 +4582,19 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4617,12 +4621,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4641,6 +4645,41 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2852,10 +2852,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2929,7 +2933,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3005,7 +3009,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3068,7 +3072,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3131,7 +3135,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3194,7 +3198,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3261,7 +3265,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3325,7 +3329,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3400,7 +3404,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3461,21 +3465,9 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3573,7 +3565,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3636,7 +3632,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3695,7 +3691,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3746,7 +3742,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3785,7 +3781,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3828,7 +3824,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3871,7 +3867,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3922,7 +3918,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3969,7 +3965,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4022,7 +4018,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4069,7 +4065,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4116,7 +4112,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4168,7 +4164,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4215,7 +4211,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4262,7 +4258,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4314,7 +4310,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4353,7 +4349,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4384,7 +4380,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4439,7 +4435,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4494,7 +4490,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4523,11 +4519,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4553,9 +4545,21 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4582,19 +4586,15 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4621,12 +4621,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4645,41 +4645,6 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -1315,10 +1315,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>*late arrival, after appt</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1387,7 +1391,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1465,7 +1469,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1605,7 +1609,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1743,14 +1747,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3rd Scan</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1910,13 +1910,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1982,12 +1981,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2034,9 +2034,21 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2138,11 +2150,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2191,7 +2199,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2246,7 +2254,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL      </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2289,7 +2297,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
+          <t xml:space="preserve">DC5-FINANCIAL      </t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2332,7 +2340,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2379,7 +2387,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2420,7 +2428,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2470,21 +2482,9 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2536,18 +2536,17 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2592,15 +2591,20 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2660,20 +2664,15 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -2724,17 +2723,18 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>4th Financial, work w/ Carlie</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2792,15 +2792,19 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4th Financial, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2847,7 +2851,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2928,7 +2932,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3004,7 +3008,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3067,7 +3071,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3130,7 +3134,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3193,7 +3197,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3260,7 +3264,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3324,7 +3328,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3399,7 +3403,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4591,7 +4595,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4626,7 +4630,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -3288,7 +3288,11 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -1438,14 +1438,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1510,7 +1506,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1582,7 +1578,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1649,10 +1645,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1720,12 +1720,13 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1870,7 +1871,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1954,7 +1955,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2014,12 +2015,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2077,13 +2079,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2125,7 +2126,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2172,7 +2173,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2220,21 +2221,9 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2319,7 +2308,11 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2364,7 +2357,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2407,7 +2400,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #880 +RX, GLENDALE - SILVER SPRING</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2462,7 +2455,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PICK #880 +RX, GLENDALE - SILVER SPRING</t>
+          <t>1735 W SILVER SPRING</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2514,7 +2507,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1735 W SILVER SPRING</t>
+          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2573,7 +2566,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2632,11 +2625,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2694,9 +2683,21 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2765,17 +2766,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2824,17 +2825,17 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2901,17 +2902,17 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Trainer, Until 11:45</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2977,19 +2978,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Trainer, Until 11:45</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3044,15 +3041,19 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>4th Scan, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3103,19 +3104,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>4th Scan, work w/ Jerry</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3170,15 +3167,19 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3233,17 +3234,18 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>2nd week,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3304,18 +3306,17 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3368,12 +3369,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3448,17 +3449,18 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3503,18 +3505,17 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3543,12 +3544,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3604,12 +3605,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3667,12 +3668,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3716,21 +3717,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3811,7 +3800,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3856,7 +3849,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3895,7 +3888,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3946,7 +3939,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3993,7 +3986,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4046,7 +4039,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4093,7 +4086,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4140,7 +4133,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4192,7 +4185,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4239,7 +4232,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4286,7 +4279,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -4336,11 +4329,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4370,9 +4359,21 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4415,17 +4416,17 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4468,21 +4469,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4539,7 +4528,11 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -4578,7 +4571,11 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>

--- a/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
+++ b/10-20-24 to 10-26-24 Milwaukee Schedule.xlsx
@@ -706,7 +706,11 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Optima Maintenance</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -4426,7 +4430,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>Gold Camry</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
